--- a/buck_converter_design.xlsx
+++ b/buck_converter_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\Saykal\repo\Buck_Converter_Pid_Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E21B925-D504-40C2-9B89-9B6785E87275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688269CF-97C2-4B42-91E5-6E6DE183F0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="2865" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,25 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Excel Formula / Description</t>
-  </si>
-  <si>
-    <t>Input Voltage (Vs)</t>
-  </si>
-  <si>
-    <t>Output Voltage (Vo)</t>
-  </si>
-  <si>
-    <t>Output Current (Io)</t>
-  </si>
-  <si>
-    <t>Switching Frequency (fs)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Ripple Current Ratio</t>
   </si>
@@ -116,21 +98,6 @@
     <t>Pf</t>
   </si>
   <si>
-    <t>Toplam</t>
-  </si>
-  <si>
-    <t>Ortalama</t>
-  </si>
-  <si>
-    <t>Değişen Toplam</t>
-  </si>
-  <si>
-    <t>Say</t>
-  </si>
-  <si>
-    <t>Sütun3</t>
-  </si>
-  <si>
     <t>ŞEKİL1</t>
   </si>
   <si>
@@ -138,6 +105,24 @@
   </si>
   <si>
     <t>ŞEKİL3</t>
+  </si>
+  <si>
+    <t>Formül</t>
+  </si>
+  <si>
+    <t>Parametre</t>
+  </si>
+  <si>
+    <t>Giriş Gerilimi (Vg)</t>
+  </si>
+  <si>
+    <t>Çıkış Gerilimi (Vo)</t>
+  </si>
+  <si>
+    <t>Çıkış Akımı (Io)</t>
+  </si>
+  <si>
+    <t>Anahtarlama Frekansı (fs)</t>
   </si>
 </sst>
 </file>
@@ -814,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,15 +814,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5">
         <v>60</v>
@@ -845,7 +830,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5">
         <v>24</v>
@@ -853,7 +838,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5">
         <v>10</v>
@@ -861,7 +846,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5">
         <v>20000</v>
@@ -869,7 +854,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5">
         <v>0.2</v>
@@ -877,7 +862,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <f>B6*B4</f>
@@ -886,19 +871,19 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
         <f>B3/B2</f>
         <v>0.4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <f>(B3*(1-B8))/(B7*B5)</f>
@@ -909,12 +894,12 @@
         <v>359.99999999999994</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
         <f>(1-B8)/(8*B9*0.01*B5*B5)</f>
@@ -925,12 +910,12 @@
         <v>52.083333333333329</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <f>B3/B7</f>
@@ -939,115 +924,115 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
         <f>SQRT(B4*B4+((B7/SQRT(12))^2))</f>
         <v>10.016652800877813</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <f>SQRT(0*0+((B7/SQRT(12))^2))</f>
         <v>0.57735026918962584</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <f>B3/B4</f>
         <v>2.4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E26" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2">
         <f>((B3/0.8)-1)*10000</f>
         <v>290000</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2">
         <f>B29/1000</f>
         <v>290</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2">
         <f>1/(2*PI()*SQRT(B9*B10))</f>
         <v>1162.3033662650948</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B33" s="2">
         <f>B31*0.9</f>
         <v>1046.0730296385855</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B35" s="2">
         <f>1/(2*PI()*B29*B33)</f>
         <v>5.2463846504326232E-10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2">
         <f>B35*10^12</f>
         <v>524.63846504326227</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
